--- a/pred_ohlcv/54_21/2019-11-13 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 PPT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-26317.6623</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-21843.6623</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-21193.6623</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-21193.6623</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-21193.6623</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-21147.4112</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-20164.4112</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12351.69569999999</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>25192.53990000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>26739.33520000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>26741.22610000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>26600.22610000001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>44454.62730000001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>41189.56300000001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>41189.56300000001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>34969.19510000001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>33992.10770000002</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>33992.10770000002</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>45355.65130000001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>45356.45130000002</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>44467.95870000002</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>44806.16510000002</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>43360.97010000002</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>43987.64510000002</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>41104.67968363003</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>35655.80638363003</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-13 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 PPT ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-21643.6623</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-21643.6623</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-21743.6623</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-21193.6623</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-21193.6623</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-21193.6623</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-21190.6623</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-20397.4706</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-20513.4706</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-20513.4706</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-20085.4706</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-22499.088</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-22499.088</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-24317.9431</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-20181.4112</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-21147.4112</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-21147.4112</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-20164.4112</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12351.69569999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>188.3281000000061</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>25192.53990000001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>26739.33520000001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>26741.22610000001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>26600.22610000001</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>45241.31920000001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>41189.56300000001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>39791.99350000001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>32908.72220000002</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>45355.65130000001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>45356.45130000002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>44467.95870000002</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>44806.16510000002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>43360.97010000002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>43987.64510000002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>43307.64520000002</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>43359.64520000002</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>43364.55518363002</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>39735.73048363002</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
